--- a/schedule/金牌斗地主v1.1项目进度20190828-v2.xlsx
+++ b/schedule/金牌斗地主v1.1项目进度20190828-v2.xlsx
@@ -182,15 +182,9 @@
     <t>破产补助优化</t>
   </si>
   <si>
-    <t>统一体验，全部场次均可触发领取</t>
-  </si>
-  <si>
     <t>玩家操作优化</t>
   </si>
   <si>
-    <t>错误贴图及明牌时AI加倍响应时间</t>
-  </si>
-  <si>
     <t>BUG修复</t>
   </si>
   <si>
@@ -242,13 +236,7 @@
     <t>大厅按钮开关</t>
   </si>
   <si>
-    <t>大厅功能按钮可通过后台控制显示/隐藏</t>
-  </si>
-  <si>
     <t>支付/礼包/任务测试配合</t>
-  </si>
-  <si>
-    <t>确认功能可用，配合测试</t>
   </si>
   <si>
     <t>备注：
@@ -302,6 +290,22 @@
   </si>
   <si>
     <t>国贤</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认功能可用，配合测试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅功能按钮可通过后台控制显示/隐藏</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一体验，全部场次均可触发领取</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误贴图及明牌时AI加倍响应时间</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1025,6 +1029,72 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1064,9 +1134,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,69 +1142,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,7 +1452,7 @@
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+      <selection activeCell="D12" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1464,160 +1468,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
     </row>
     <row r="5" spans="1:22" ht="16.5">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:22" ht="16.5">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="94">
+      <c r="B6" s="61"/>
+      <c r="C6" s="62">
         <v>43729</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:22" ht="16.5">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1"/>
     <row r="9" spans="1:22" ht="16.5">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="72" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="80" t="s">
+      <c r="J9" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80" t="s">
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="57" t="s">
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="79" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="17.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="68"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="15">
         <v>28</v>
       </c>
@@ -1654,23 +1658,23 @@
       <c r="U10" s="41">
         <v>8</v>
       </c>
-      <c r="V10" s="58"/>
+      <c r="V10" s="80"/>
     </row>
     <row r="11" spans="1:22" ht="16.5">
-      <c r="A11" s="83"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="69"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="91"/>
       <c r="J11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>19</v>
@@ -1702,24 +1706,24 @@
       <c r="U11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="58"/>
+      <c r="V11" s="80"/>
     </row>
     <row r="12" spans="1:22" ht="16.5">
-      <c r="A12" s="84"/>
-      <c r="B12" s="79" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="74" t="s">
-        <v>83</v>
+      <c r="D12" s="75" t="s">
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G12" s="52">
         <v>43705</v>
@@ -1743,10 +1747,10 @@
       <c r="V12" s="43"/>
     </row>
     <row r="13" spans="1:22" ht="16.5">
-      <c r="A13" s="84"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="75"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1775,10 +1779,10 @@
       <c r="V13" s="43"/>
     </row>
     <row r="14" spans="1:22" ht="16.5">
-      <c r="A14" s="84"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="76"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1801,8 +1805,8 @@
       <c r="V14" s="45"/>
     </row>
     <row r="15" spans="1:22" ht="16.5">
-      <c r="A15" s="84"/>
-      <c r="B15" s="87"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1837,21 +1841,21 @@
       <c r="V15" s="45"/>
     </row>
     <row r="16" spans="1:22" ht="16.5">
-      <c r="A16" s="84"/>
-      <c r="B16" s="78" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="75" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G16" s="52">
         <v>43710</v>
@@ -1875,10 +1879,10 @@
       <c r="V16" s="45"/>
     </row>
     <row r="17" spans="1:22" ht="16.5">
-      <c r="A17" s="84"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="75"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
@@ -1907,10 +1911,10 @@
       <c r="V17" s="45"/>
     </row>
     <row r="18" spans="1:22" ht="16.5">
-      <c r="A18" s="84"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="76"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="8" t="s">
         <v>29</v>
       </c>
@@ -1933,19 +1937,19 @@
       <c r="V18" s="45"/>
     </row>
     <row r="19" spans="1:22" ht="16.5">
-      <c r="A19" s="84"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="78" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="75" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G19" s="52">
         <v>43713</v>
@@ -1969,10 +1973,10 @@
       <c r="V19" s="45"/>
     </row>
     <row r="20" spans="1:22" ht="16.5">
-      <c r="A20" s="84"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="75"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="8" t="s">
         <v>27</v>
       </c>
@@ -2001,10 +2005,10 @@
       <c r="V20" s="45"/>
     </row>
     <row r="21" spans="1:22" ht="16.5">
-      <c r="A21" s="84"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="75"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="8" t="s">
         <v>38</v>
       </c>
@@ -2029,10 +2033,10 @@
       <c r="V21" s="45"/>
     </row>
     <row r="22" spans="1:22" ht="16.5">
-      <c r="A22" s="84"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="76"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="8" t="s">
         <v>29</v>
       </c>
@@ -2055,19 +2059,19 @@
       <c r="V22" s="45"/>
     </row>
     <row r="23" spans="1:22" ht="16.5">
-      <c r="A23" s="84"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="78" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G23" s="5">
         <v>43717</v>
@@ -2091,10 +2095,10 @@
       <c r="V23" s="45"/>
     </row>
     <row r="24" spans="1:22" ht="16.5">
-      <c r="A24" s="84"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="75"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="8" t="s">
         <v>27</v>
       </c>
@@ -2123,10 +2127,10 @@
       <c r="V24" s="45"/>
     </row>
     <row r="25" spans="1:22" ht="16.5">
-      <c r="A25" s="84"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="75"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="8" t="s">
         <v>38</v>
       </c>
@@ -2151,10 +2155,10 @@
       <c r="V25" s="45"/>
     </row>
     <row r="26" spans="1:22" ht="16.5">
-      <c r="A26" s="84"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="76"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="78"/>
       <c r="E26" s="8" t="s">
         <v>29</v>
       </c>
@@ -2177,8 +2181,8 @@
       <c r="V26" s="45"/>
     </row>
     <row r="27" spans="1:22" ht="16.5">
-      <c r="A27" s="84"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="72" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -2215,8 +2219,8 @@
       <c r="V27" s="45"/>
     </row>
     <row r="28" spans="1:22" ht="16.5">
-      <c r="A28" s="84"/>
-      <c r="B28" s="70"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="3" t="s">
         <v>45</v>
       </c>
@@ -2227,7 +2231,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G28" s="52">
         <v>43727</v>
@@ -2251,8 +2255,8 @@
       <c r="V28" s="45"/>
     </row>
     <row r="29" spans="1:22" ht="16.5">
-      <c r="A29" s="84"/>
-      <c r="B29" s="70"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="3" t="s">
         <v>47</v>
       </c>
@@ -2263,7 +2267,7 @@
         <v>26</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G29" s="52">
         <v>43726</v>
@@ -2287,8 +2291,8 @@
       <c r="V29" s="45"/>
     </row>
     <row r="30" spans="1:22" ht="16.5">
-      <c r="A30" s="84"/>
-      <c r="B30" s="70"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="3" t="s">
         <v>49</v>
       </c>
@@ -2299,7 +2303,7 @@
         <v>26</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G30" s="52">
         <v>43724</v>
@@ -2323,8 +2327,8 @@
       <c r="V30" s="45"/>
     </row>
     <row r="31" spans="1:22" ht="28.5">
-      <c r="A31" s="84"/>
-      <c r="B31" s="70"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="3" t="s">
         <v>51</v>
       </c>
@@ -2335,7 +2339,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G31" s="52">
         <v>43725</v>
@@ -2359,19 +2363,19 @@
       <c r="V31" s="45"/>
     </row>
     <row r="32" spans="1:22" ht="16.5">
-      <c r="A32" s="84"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="78" t="s">
+      <c r="A32" s="67"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="74" t="s">
-        <v>54</v>
+      <c r="D32" s="75" t="s">
+        <v>88</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G32" s="5">
         <v>43724</v>
@@ -2395,10 +2399,10 @@
       <c r="V32" s="45"/>
     </row>
     <row r="33" spans="1:22" ht="16.5">
-      <c r="A33" s="84"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="75"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="4" t="s">
         <v>27</v>
       </c>
@@ -2427,10 +2431,10 @@
       <c r="V33" s="45"/>
     </row>
     <row r="34" spans="1:22" ht="16.5">
-      <c r="A34" s="84"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="76"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="78"/>
       <c r="E34" s="4" t="s">
         <v>29</v>
       </c>
@@ -2453,19 +2457,19 @@
       <c r="V34" s="45"/>
     </row>
     <row r="35" spans="1:22" ht="16.5">
-      <c r="A35" s="84"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="74" t="s">
-        <v>56</v>
+      <c r="A35" s="67"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>89</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G35" s="52">
         <v>43724</v>
@@ -2489,10 +2493,10 @@
       <c r="V35" s="45"/>
     </row>
     <row r="36" spans="1:22" ht="16.5">
-      <c r="A36" s="84"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="75"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="4" t="s">
         <v>27</v>
       </c>
@@ -2521,10 +2525,10 @@
       <c r="V36" s="45"/>
     </row>
     <row r="37" spans="1:22" ht="16.5">
-      <c r="A37" s="84"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="76"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="4" t="s">
         <v>29</v>
       </c>
@@ -2547,21 +2551,21 @@
       <c r="V37" s="45"/>
     </row>
     <row r="38" spans="1:22" ht="16.5">
-      <c r="A38" s="84"/>
-      <c r="B38" s="78" t="s">
+      <c r="A38" s="67"/>
+      <c r="B38" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="75" t="s">
         <v>57</v>
-      </c>
-      <c r="C38" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="74" t="s">
-        <v>59</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G38" s="52">
         <v>43729</v>
@@ -2585,15 +2589,15 @@
       <c r="V38" s="45"/>
     </row>
     <row r="39" spans="1:22" ht="16.5">
-      <c r="A39" s="84"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="76"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G39" s="5">
         <v>43705</v>
@@ -2617,13 +2621,13 @@
       <c r="V39" s="45"/>
     </row>
     <row r="40" spans="1:22" ht="16.5">
-      <c r="A40" s="84"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="74" t="s">
-        <v>62</v>
+      <c r="A40" s="67"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="75" t="s">
+        <v>60</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>26</v>
@@ -2647,15 +2651,15 @@
       <c r="V40" s="45"/>
     </row>
     <row r="41" spans="1:22" ht="16.5">
-      <c r="A41" s="84"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="76"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="78"/>
       <c r="E41" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G41" s="5">
         <v>43703</v>
@@ -2679,21 +2683,21 @@
       <c r="V41" s="45"/>
     </row>
     <row r="42" spans="1:22" ht="16.5">
-      <c r="A42" s="84"/>
-      <c r="B42" s="87" t="s">
+      <c r="A42" s="67"/>
+      <c r="B42" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G42" s="5">
         <v>43725</v>
@@ -2717,13 +2721,13 @@
       <c r="V42" s="45"/>
     </row>
     <row r="43" spans="1:22" ht="16.5">
-      <c r="A43" s="84"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="74" t="s">
-        <v>67</v>
+      <c r="A43" s="67"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>65</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>27</v>
@@ -2753,10 +2757,10 @@
       <c r="V43" s="45"/>
     </row>
     <row r="44" spans="1:22" ht="16.5">
-      <c r="A44" s="84"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="75"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="76"/>
       <c r="E44" s="8" t="s">
         <v>38</v>
       </c>
@@ -2785,10 +2789,10 @@
       <c r="V44" s="45"/>
     </row>
     <row r="45" spans="1:22" ht="16.5">
-      <c r="A45" s="84"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="76"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="78"/>
       <c r="E45" s="4" t="s">
         <v>29</v>
       </c>
@@ -2811,21 +2815,21 @@
       <c r="V45" s="45"/>
     </row>
     <row r="46" spans="1:22" ht="16.5">
-      <c r="A46" s="84"/>
-      <c r="B46" s="87" t="s">
+      <c r="A46" s="67"/>
+      <c r="B46" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="75" t="s">
         <v>68</v>
-      </c>
-      <c r="C46" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="74" t="s">
-        <v>70</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G46" s="5">
         <v>43724</v>
@@ -2849,15 +2853,15 @@
       <c r="V46" s="45"/>
     </row>
     <row r="47" spans="1:22" ht="16.5">
-      <c r="A47" s="84"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="76"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="78"/>
       <c r="E47" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G47" s="5">
         <v>43706</v>
@@ -2881,17 +2885,17 @@
       <c r="V47" s="45"/>
     </row>
     <row r="48" spans="1:22" ht="16.5">
-      <c r="A48" s="84"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="78" t="s">
-        <v>71</v>
+      <c r="A48" s="67"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="72" t="s">
+        <v>69</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G48" s="52">
         <v>43704</v>
@@ -2915,9 +2919,9 @@
       <c r="V48" s="45"/>
     </row>
     <row r="49" spans="1:22" ht="16.5">
-      <c r="A49" s="84"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="70"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="73"/>
       <c r="D49" s="7"/>
       <c r="E49" s="8" t="s">
         <v>38</v>
@@ -2947,11 +2951,11 @@
       <c r="V49" s="45"/>
     </row>
     <row r="50" spans="1:22" ht="16.5">
-      <c r="A50" s="84"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="79"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="70"/>
       <c r="D50" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>29</v>
@@ -2975,19 +2979,19 @@
       <c r="V50" s="45"/>
     </row>
     <row r="51" spans="1:22" ht="16.5">
-      <c r="A51" s="85"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="74" t="s">
-        <v>74</v>
+      <c r="A51" s="68"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="75" t="s">
+        <v>87</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G51" s="5">
         <v>43727</v>
@@ -3011,10 +3015,10 @@
       <c r="V51" s="45"/>
     </row>
     <row r="52" spans="1:22" ht="16.5">
-      <c r="A52" s="85"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="75"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="76"/>
       <c r="E52" s="8" t="s">
         <v>27</v>
       </c>
@@ -3043,10 +3047,10 @@
       <c r="V52" s="45"/>
     </row>
     <row r="53" spans="1:22" ht="16.5">
-      <c r="A53" s="85"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="75"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="76"/>
       <c r="E53" s="8" t="s">
         <v>29</v>
       </c>
@@ -3069,19 +3073,19 @@
       <c r="V53" s="45"/>
     </row>
     <row r="54" spans="1:22" ht="16.5">
-      <c r="A54" s="85"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="74" t="s">
-        <v>76</v>
+      <c r="A54" s="68"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="75" t="s">
+        <v>86</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G54" s="5">
         <v>43715</v>
@@ -3105,15 +3109,15 @@
       <c r="V54" s="45"/>
     </row>
     <row r="55" spans="1:22" ht="16.5">
-      <c r="A55" s="85"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="75"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="76"/>
       <c r="E55" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G55" s="5">
         <v>43715</v>
@@ -3137,9 +3141,9 @@
       <c r="V55" s="50"/>
     </row>
     <row r="56" spans="1:22" ht="17.25" thickBot="1">
-      <c r="A56" s="86"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="71"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="92"/>
       <c r="D56" s="77"/>
       <c r="E56" s="13" t="s">
         <v>38</v>
@@ -3170,19 +3174,19 @@
     </row>
     <row r="57" spans="1:22" ht="14.25">
       <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" t="s">
         <v>84</v>
       </c>
-      <c r="C57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" t="s">
-        <v>88</v>
-      </c>
       <c r="E57" s="53" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F57" s="54" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G57" s="55">
         <v>43715</v>
@@ -3192,93 +3196,115 @@
       </c>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
+      <c r="A58" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="61"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
+      <c r="A60" s="83"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="61"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
+      <c r="A61" s="83"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="61"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
+      <c r="A62" s="83"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="83"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
+      <c r="A63" s="83"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
+      <c r="A64" s="83"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:V56"/>
   <mergeCells count="50">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="A1:J4"/>
+    <mergeCell ref="A58:I64"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:U9"/>
     <mergeCell ref="A9:A56"/>
@@ -3295,34 +3321,12 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="A1:J4"/>
-    <mergeCell ref="A58:I64"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="E1:E9 E12:E1048576">
